--- a/public/test.xlsx
+++ b/public/test.xlsx
@@ -20,42 +20,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
-  <si>
-    <t xml:space="preserve">Inflatable Ring Pool 183cm X 51cm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Easy Set Pool is the perfect and convenient product to have fun on the bright sunny days
-The Easy Set Pool is the perfect starter pool. Quick and super-easy to set-up and the right size for your younger kids
-The Easy Set Pool Water capacity: 886 Litres
-Easy Set Pool dimensions: 183 cm x 51 cm
-The Easy Set Pool builds itself as it fills and comes with a drain plug for easy emptying for customer convenience
-The Easy Set Pool is a robust and strong alternative, because the sidewalls are made with 3 separate layers of material for extra strength and durability
-The Easy Set Pool is suitable for ages +6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28101NP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inflatable Ring Pool 183cm x 51cm,28101NP,Intexjo.com, intex jordan, intex 4m x 2m x 1m, intex, intex 26356np, منتجات شركة intex, intex aqua flow, intex 975, intex 4m x 2m x 1m prism frame rectangular pool set, intex prism frame 366 x 99, intex prism frame pool 400x200x100, فرشات نفخ في الأردن, www.intex.com, فرشات نفخ الاردن, www intex.com, عجل سباحة, نظارة سباحة, swimming pool 4m x 2m, intex ultra xtr rectangular pool, intex 26788, نظارات سباحة, 26356np, موقع شركة intex, نظارة سباحه, intex logo, كرسي نفخ, intex 3m pool, 5.49x2, intex pool 4m x 2m, intex 26652, intex prism frame range collapsible with filter pool 366 x 99 cm, swimming pool 3m x 2m, سحسيلة نفخ, pool 4m x 2m, ultra xtr rectangular pool, intex beach ball 1.07m, intex pool 366, intex pool ultra xtr, intex pools in jordan, intex products in amman, intex ultra xtr frame pool 975 x 488 x 132, intex prism 366 x 99, 26356np intex, intex distributor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">بركة سباحة دائرية قابلة للنفخ بقطر 183 سم وارتفاع 51 سم.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ش</t>
-  </si>
-  <si>
-    <t xml:space="preserve">public/image-798467609623.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">651423651ce6a2f235e9ec7f</t>
-  </si>
-  <si>
-    <t xml:space="preserve">651423be1ce6a2f235e9ec81</t>
-  </si>
-  <si>
-    <t xml:space="preserve">183cm X 51cm</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="6">
+  <si>
+    <t xml:space="preserve">1:12 H-D Trikes - 2021 CVO Tri Glide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1:12 هارلي-ديفيدسون ترايكس - 2021 سيفيو تراي جلايد</t>
+  </si>
+  <si>
+    <t xml:space="preserve">public/a.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6529773acc8e44deb1cdffb9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65295caa9853cb8fa0197183</t>
   </si>
   <si>
     <t xml:space="preserve">7-12</t>
@@ -68,7 +47,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -89,11 +68,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -138,24 +112,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -176,72 +142,77 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P1" activeCellId="0" sqref="P1"/>
+      <selection pane="topLeft" activeCell="G4" activeCellId="0" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>90159323372</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="I1" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="J1" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="L1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="M1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="0" t="s">
+      <c r="N1" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="0" t="n">
-        <v>35</v>
-      </c>
-      <c r="I1" s="3" t="n">
-        <v>20</v>
-      </c>
-      <c r="J1" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K1" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="L1" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="M1" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="N1" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O1" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="P1" s="0" t="s">
-        <v>10</v>
-      </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="N2" s="4"/>
+    <row r="3" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
